--- a/_files/requirements/master_data/master-reg_center_device_h.xlsx
+++ b/_files/requirements/master_data/master-reg_center_device_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C935B9F0-FC46-41A4-86E9-0DFD5D67AEE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C61CF18F-B497-4AEE-9B59-2E2BD3859862}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +372,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -533,8 +539,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A357" sqref="A357:B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9087,10 +9095,10 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>10008</v>
-      </c>
-      <c r="B357">
+      <c r="A357" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B357" s="2">
         <v>3000376</v>
       </c>
       <c r="C357" t="s">
@@ -9110,10 +9118,10 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>10008</v>
-      </c>
-      <c r="B358">
+      <c r="A358" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B358" s="2">
         <v>3000377</v>
       </c>
       <c r="C358" t="s">
@@ -9133,10 +9141,10 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>10008</v>
-      </c>
-      <c r="B359">
+      <c r="A359" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B359" s="2">
         <v>3000378</v>
       </c>
       <c r="C359" t="s">
@@ -9156,10 +9164,10 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>10008</v>
-      </c>
-      <c r="B360">
+      <c r="A360" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B360" s="2">
         <v>3000379</v>
       </c>
       <c r="C360" t="s">
@@ -9179,10 +9187,10 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>10008</v>
-      </c>
-      <c r="B361">
+      <c r="A361" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B361" s="2">
         <v>3000380</v>
       </c>
       <c r="C361" t="s">
@@ -9203,7 +9211,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B362">
         <v>3000381</v>
@@ -9226,7 +9234,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B363">
         <v>3000382</v>
@@ -9249,7 +9257,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B364">
         <v>3000383</v>
@@ -9272,7 +9280,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B365">
         <v>3000384</v>
@@ -9295,7 +9303,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B366">
         <v>3000385</v>
@@ -9318,7 +9326,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B367">
         <v>3000386</v>
@@ -9341,7 +9349,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B368">
         <v>3000387</v>
@@ -9364,7 +9372,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B369">
         <v>3000388</v>
@@ -9387,7 +9395,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B370">
         <v>3000389</v>
@@ -9410,7 +9418,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B371">
         <v>3000390</v>
@@ -9433,7 +9441,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B372">
         <v>3000391</v>
@@ -9456,7 +9464,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B373">
         <v>3000392</v>
@@ -9479,7 +9487,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B374">
         <v>3000393</v>
@@ -9502,7 +9510,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B375">
         <v>3000394</v>
@@ -9525,7 +9533,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B376">
         <v>3000395</v>
@@ -9548,7 +9556,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B377">
         <v>3000396</v>
@@ -9571,7 +9579,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B378">
         <v>3000397</v>
@@ -9594,7 +9602,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B379">
         <v>3000398</v>
@@ -9617,7 +9625,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B380">
         <v>3000399</v>
@@ -9640,7 +9648,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B381">
         <v>3000400</v>
@@ -9663,7 +9671,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B382">
         <v>3000401</v>
@@ -9686,7 +9694,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B383">
         <v>3000402</v>
@@ -9709,7 +9717,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B384">
         <v>3000403</v>
@@ -9732,7 +9740,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B385">
         <v>3000404</v>
@@ -9755,7 +9763,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B386">
         <v>3000405</v>
@@ -9778,7 +9786,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B387">
         <v>3000406</v>
@@ -9801,7 +9809,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B388">
         <v>3000407</v>
@@ -9824,7 +9832,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B389">
         <v>3000408</v>
@@ -9847,7 +9855,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B390">
         <v>3000409</v>
@@ -9870,7 +9878,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B391">
         <v>3000410</v>
@@ -9893,7 +9901,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B392">
         <v>3000411</v>
@@ -9916,7 +9924,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B393">
         <v>3000412</v>
@@ -9939,7 +9947,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B394">
         <v>3000413</v>
@@ -9962,7 +9970,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B395">
         <v>3000414</v>
@@ -9985,7 +9993,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B396">
         <v>3000415</v>
@@ -10008,7 +10016,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B397">
         <v>3000416</v>
@@ -10031,7 +10039,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B398">
         <v>3000417</v>
@@ -10054,7 +10062,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B399">
         <v>3000418</v>
@@ -10077,7 +10085,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B400">
         <v>3000419</v>
@@ -10100,7 +10108,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B401">
         <v>3000420</v>
@@ -10123,7 +10131,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B402">
         <v>3000421</v>
@@ -10146,7 +10154,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B403">
         <v>3000422</v>
@@ -10169,7 +10177,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B404">
         <v>3000423</v>
@@ -10192,7 +10200,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B405">
         <v>3000424</v>
@@ -10215,7 +10223,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B406">
         <v>3000425</v>
@@ -10238,7 +10246,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B407">
         <v>3000426</v>
@@ -10261,7 +10269,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B408">
         <v>3000427</v>
@@ -10284,7 +10292,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B409">
         <v>3000428</v>
@@ -10307,7 +10315,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B410">
         <v>3000429</v>
@@ -10330,7 +10338,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B411">
         <v>3000430</v>
@@ -10352,8 +10360,8 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A412">
-        <v>10008</v>
+      <c r="A412" s="1">
+        <v>33333</v>
       </c>
       <c r="B412">
         <v>3000431</v>
@@ -10375,8 +10383,8 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A413">
-        <v>10008</v>
+      <c r="A413" s="1">
+        <v>33333</v>
       </c>
       <c r="B413">
         <v>3000432</v>
@@ -10398,8 +10406,8 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A414">
-        <v>10008</v>
+      <c r="A414" s="1">
+        <v>33333</v>
       </c>
       <c r="B414">
         <v>3000433</v>
@@ -10421,8 +10429,8 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A415">
-        <v>10008</v>
+      <c r="A415" s="1">
+        <v>33333</v>
       </c>
       <c r="B415">
         <v>3000434</v>
@@ -10444,8 +10452,8 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A416">
-        <v>10008</v>
+      <c r="A416" s="1">
+        <v>33333</v>
       </c>
       <c r="B416">
         <v>3000435</v>
